--- a/tut06/output/2001ME60.xlsx
+++ b/tut06/output/2001ME60.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,21 +475,11 @@
           <t>RISHABH KUMAR SINHA</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -824,6 +814,54 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>26/09/2022</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>29/09/2022</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>1</v>
       </c>
     </row>
